--- a/biology/Biochimie/Électrophérogramme/Électrophérogramme.xlsx
+++ b/biology/Biochimie/Électrophérogramme/Électrophérogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectroph%C3%A9rogramme</t>
+          <t>Électrophérogramme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un électrophérogramme, ou électrophorégramme, peut également être appelé EPG ou e-gramme. Il s'agit d'un enregistrement ou d'un graphique produit par électrophorèse dans une technique analytique, principalement dans les domaines de la biologie médico-légale, de la biologie moléculaire et de la biochimie[1]. Cette se base sur l'utilisation de points de données[pas clair] correspondant à un temps spécifique et à une intensité de fluorescence à différentes longueurs d'onde de lumière pour représenter un profil d'ADN[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un électrophérogramme, ou électrophorégramme, peut également être appelé EPG ou e-gramme. Il s'agit d'un enregistrement ou d'un graphique produit par électrophorèse dans une technique analytique, principalement dans les domaines de la biologie médico-légale, de la biologie moléculaire et de la biochimie. Cette se base sur l'utilisation de points de données[pas clair] correspondant à un temps spécifique et à une intensité de fluorescence à différentes longueurs d'onde de lumière pour représenter un profil d'ADN.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectroph%C3%A9rogramme</t>
+          <t>Électrophérogramme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>En génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans le domaine de la génétique, un électrophérogramme est un tracé de la taille de fragments d'ADN, généralement utilisé pour le génotypage comme le séquençage de l'ADN[3]. Les données sont tracées en fonction du temps, représentées par des paires de bases (pdb), sur l'axe des x et l'intensité de fluorescence sur l'axe des y. Ces figures sont souvent réalisées à l'aide d'un instrument comme un séquenceur d'ADN automatisé associé à une électrophorèse capillaire (CE). De tels électrophérogrammes peuvent être utilisés pour déterminer des génotypes de séquences d'ADN ou des génotypes basés sur la longueur de fragments d'ADN spécifiques ou sur le nombre de séquences répétées en tandem (STR pour short tandem repeats en anglais) à un locus spécifique en comparant l'échantillon à des standards de taille et à des données d'échelle allélique à l'aide du même standard de taille[2]. Ces génotypes peuvent être utilisés dans les domaines suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans le domaine de la génétique, un électrophérogramme est un tracé de la taille de fragments d'ADN, généralement utilisé pour le génotypage comme le séquençage de l'ADN. Les données sont tracées en fonction du temps, représentées par des paires de bases (pdb), sur l'axe des x et l'intensité de fluorescence sur l'axe des y. Ces figures sont souvent réalisées à l'aide d'un instrument comme un séquenceur d'ADN automatisé associé à une électrophorèse capillaire (CE). De tels électrophérogrammes peuvent être utilisés pour déterminer des génotypes de séquences d'ADN ou des génotypes basés sur la longueur de fragments d'ADN spécifiques ou sur le nombre de séquences répétées en tandem (STR pour short tandem repeats en anglais) à un locus spécifique en comparant l'échantillon à des standards de taille et à des données d'échelle allélique à l'aide du même standard de taille. Ces génotypes peuvent être utilisés dans les domaines suivants :
 Test ADN généalogique
 Test de paternité ADN
 Empreinte génétique
